--- a/data/trans_dic/P24D-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24D-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2745002573960286</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2326703090138789</v>
+        <v>0.2326703090138788</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2039950439401511</v>
@@ -685,7 +685,7 @@
         <v>0.3336348580154264</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2803833579069149</v>
+        <v>0.280383357906915</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1509231483974698</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0717973176915033</v>
+        <v>0.07101213643413022</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2755702115739466</v>
+        <v>0.2728430415922911</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1986564545620712</v>
+        <v>0.1907334095829091</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1153632932011354</v>
+        <v>0.1022063982476025</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1505751022858145</v>
+        <v>0.1500999628382799</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3356677826294758</v>
+        <v>0.339633296274737</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2462930566402126</v>
+        <v>0.2430564801618064</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1366494896073106</v>
+        <v>0.1384746639648381</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1168651379997805</v>
+        <v>0.1168334784047865</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3266743420518665</v>
+        <v>0.3262742376034979</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2412638204081194</v>
+        <v>0.2399074501831998</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1471222960278744</v>
+        <v>0.1526708930974702</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1519987392468764</v>
+        <v>0.1547483867338075</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4261264371055175</v>
+        <v>0.4206228562764686</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3572026046467758</v>
+        <v>0.3522345767254175</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4035169962576439</v>
+        <v>0.4121094603117368</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2704056236811347</v>
+        <v>0.2709782452062005</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5011234585920916</v>
+        <v>0.497018462190432</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4221720221002622</v>
+        <v>0.4219425307553075</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4525043221083945</v>
+        <v>0.4471108745720241</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1851593195595465</v>
+        <v>0.187722247416754</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.437707067325198</v>
+        <v>0.4356080027109809</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3630068644093593</v>
+        <v>0.3631379310148662</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3655418407741751</v>
+        <v>0.3742961258434579</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.3935734091175697</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2936463116478689</v>
+        <v>0.2936463116478688</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2157212982975711</v>
+        <v>0.211256277565165</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3573474823354606</v>
+        <v>0.3546962628926865</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3191319970233765</v>
+        <v>0.3177996419588711</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1754620724009165</v>
+        <v>0.1594911166843264</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2938645644504929</v>
+        <v>0.2867800016284511</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4961943680723787</v>
+        <v>0.5012096213272991</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3484890539847731</v>
+        <v>0.3506777229951786</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2730458350258971</v>
+        <v>0.2734625840396435</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.256816229024607</v>
+        <v>0.2569351177936326</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4338915418818023</v>
+        <v>0.429532045333705</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.349065554204963</v>
+        <v>0.3476704405448181</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2271219009342576</v>
+        <v>0.2327774623656495</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.309681865179627</v>
+        <v>0.303034776688558</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4636000202821541</v>
+        <v>0.462434455896146</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4373012268590733</v>
+        <v>0.4388612170720007</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3425082816715275</v>
+        <v>0.3522695812051055</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4166069126829728</v>
+        <v>0.4166155656642395</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6253822472124043</v>
+        <v>0.6232997575430769</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4830567668474111</v>
+        <v>0.4797707896035961</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4528204140936907</v>
+        <v>0.456791647582465</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3287563644180801</v>
+        <v>0.3332679877385127</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5174537738503716</v>
+        <v>0.5151689751377757</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.440393680136866</v>
+        <v>0.4356055866026219</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3606999232608462</v>
+        <v>0.3609512521188818</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.4484089587201123</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.4110119644319074</v>
+        <v>0.4110119644319073</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2593063795635686</v>
+        <v>0.2619745880916852</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4256476886135099</v>
+        <v>0.4315175870940167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4164946086570665</v>
+        <v>0.4107793391355871</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2877063021259641</v>
+        <v>0.2978188276915118</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3740923872049471</v>
+        <v>0.3803732929139224</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4484040815544631</v>
+        <v>0.4549893239244045</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3529061071681406</v>
+        <v>0.3525105648680018</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3876763511447262</v>
+        <v>0.3860992608200561</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3280508692124942</v>
+        <v>0.3328953813309605</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4542378780209011</v>
+        <v>0.4563956231208888</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4083480668064692</v>
+        <v>0.4044251613077708</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3601325808499963</v>
+        <v>0.3574824267884528</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3693755027645824</v>
+        <v>0.3653552736108904</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5410456419652692</v>
+        <v>0.5454999149863338</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5389060689829719</v>
+        <v>0.5350319803313496</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4508277524654916</v>
+        <v>0.4525501698419007</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5085288383170811</v>
+        <v>0.5120164826142773</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5782073960293378</v>
+        <v>0.5874409808804462</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.482666014890658</v>
+        <v>0.4877968026410759</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5328967256409798</v>
+        <v>0.5265960648172241</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4105582105617344</v>
+        <v>0.4101385796510464</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.537627116355083</v>
+        <v>0.5419285275906439</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4972653580357679</v>
+        <v>0.4943783937822911</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4636112227966809</v>
+        <v>0.464184420212146</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.4659921563221509</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4303855673970415</v>
+        <v>0.4303855673970416</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3043858781435344</v>
+        <v>0.3103282617610825</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4589609362259229</v>
+        <v>0.4605639916624076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3580960854081044</v>
+        <v>0.3714784452433433</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.315880032048678</v>
+        <v>0.3200034412864511</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2815304731545775</v>
+        <v>0.2830694777236434</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4838785918644386</v>
+        <v>0.4820557308365138</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4395280784461296</v>
+        <v>0.4413351778052825</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4202671124943996</v>
+        <v>0.4207047581707331</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3176976331712654</v>
+        <v>0.3208188054569994</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.492550782059188</v>
+        <v>0.4926164326785785</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4204660955885393</v>
+        <v>0.4146342366683274</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3837250244913209</v>
+        <v>0.3815151666801459</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4398961925851684</v>
+        <v>0.4393525059085705</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5863408210044952</v>
+        <v>0.5852679891993791</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4878997146288782</v>
+        <v>0.491913729466922</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4610633604930955</v>
+        <v>0.4658248723500819</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4433594288619001</v>
+        <v>0.4463585146069584</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6285585705288906</v>
+        <v>0.6238118879520804</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.585387144687229</v>
+        <v>0.5740075212229864</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5423404476794159</v>
+        <v>0.5419414845002298</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4193760632262257</v>
+        <v>0.421568298345057</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5839342183193358</v>
+        <v>0.5848717749028604</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5161621955183587</v>
+        <v>0.5141542312227277</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4804100781172884</v>
+        <v>0.4814221451577695</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.4926261535440413</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5194377378846941</v>
+        <v>0.5194377378846942</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.4307612165024842</v>
@@ -1241,7 +1241,7 @@
         <v>0.527654312452994</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.4630384243650768</v>
+        <v>0.4630384243650769</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4096318728224566</v>
+        <v>0.4046621944840129</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4597732411298207</v>
+        <v>0.4652310312637773</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4629369222605565</v>
+        <v>0.4663482826926577</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3585342842495964</v>
+        <v>0.3535289778966609</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.133066820596221</v>
+        <v>0.1297284478811161</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2749153674598445</v>
+        <v>0.2720475838034588</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3869242399275526</v>
+        <v>0.3931555188742119</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4508436204362597</v>
+        <v>0.4504395949636067</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3509100189069551</v>
+        <v>0.3620809157485814</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4325265607911384</v>
+        <v>0.4374260550655221</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4654659207277896</v>
+        <v>0.4659187171756669</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4120408639838197</v>
+        <v>0.4115513947266066</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5841977722575268</v>
+        <v>0.5834637563269605</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6300771329929689</v>
+        <v>0.6410289550676209</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6381463224912489</v>
+        <v>0.6489983486796165</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4940819669819983</v>
+        <v>0.4997360164356895</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3870994458369351</v>
+        <v>0.4081032792394337</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5276959723472628</v>
+        <v>0.5279441096072962</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5863016456451414</v>
+        <v>0.5877168034735858</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.587357697544329</v>
+        <v>0.5850707568230363</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5041099006236482</v>
+        <v>0.5018525683521781</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5769534565057642</v>
+        <v>0.5765744032788447</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5966421283858657</v>
+        <v>0.5899021708697214</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.511415972450675</v>
+        <v>0.515848605306849</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.4948665126293768</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.4942580197484797</v>
+        <v>0.4942580197484796</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.7074311409408639</v>
@@ -1377,7 +1377,7 @@
         <v>0.485812156162664</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4728442893689426</v>
+        <v>0.4728442893689425</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3626001633461298</v>
+        <v>0.3707981538772072</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3303336372836855</v>
+        <v>0.338707701814192</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3630764838316073</v>
+        <v>0.3625035591829061</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3980199174388358</v>
+        <v>0.3987888320991229</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2742821258535353</v>
+        <v>0.2722813575296636</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1593728920376614</v>
+        <v>0.1836511791255551</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2933406004468271</v>
+        <v>0.2720774510087072</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3488009288269757</v>
+        <v>0.344520504524656</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.388962262090026</v>
+        <v>0.3976690879218739</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3395874398933944</v>
+        <v>0.3285249886172374</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3847460358374772</v>
+        <v>0.3796125621129496</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3958182429822661</v>
+        <v>0.4049274605158334</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6228589934323101</v>
+        <v>0.6169023202492124</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6512482537984543</v>
+        <v>0.63232678751099</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6364152881501587</v>
+        <v>0.6223535392496136</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5895513446490662</v>
+        <v>0.5920923924169719</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6482379126586505</v>
+        <v>0.650920430471839</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6833893397402471</v>
+        <v>0.6718201860517989</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5478083224145773</v>
+        <v>0.5436859899197356</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6451768277323755</v>
+        <v>0.6312962799605748</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6050461646719701</v>
+        <v>0.5854443861456761</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6002090597994347</v>
+        <v>0.5923921768957097</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5399718533829053</v>
+        <v>0.5393979303306361</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.5205218909208739</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3153701032711624</v>
+        <v>0.3153701032711625</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2316381179566205</v>
@@ -1513,7 +1513,7 @@
         <v>0.5626119451318201</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3250758944132756</v>
+        <v>0.3250758944132755</v>
       </c>
     </row>
     <row r="23">
@@ -1524,16 +1524,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3445169401364143</v>
+        <v>0.3662843136203518</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2881249159122858</v>
+        <v>0.293311153814837</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3166745540569818</v>
+        <v>0.351980671490082</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1516888700113784</v>
+        <v>0.1781597317535701</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
@@ -1542,22 +1542,22 @@
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3491866688955444</v>
+        <v>0.1854549806166403</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1107590066194798</v>
+        <v>0.09310629199938164</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.329585201215951</v>
+        <v>0.3102056561396884</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.254669634411586</v>
+        <v>0.265306169163488</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.402123738765334</v>
+        <v>0.3789304021504803</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2008342755219124</v>
+        <v>0.1845881585489973</v>
       </c>
     </row>
     <row r="24">
@@ -1568,16 +1568,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7906269477036671</v>
+        <v>0.7747880410246624</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6806921406052828</v>
+        <v>0.7098097426907581</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6924968934976826</v>
+        <v>0.7241006539047051</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4921413516064881</v>
+        <v>0.5093455767585364</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>1</v>
@@ -1589,19 +1589,19 @@
         <v>1</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6922506518057348</v>
+        <v>0.6606029386649978</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7059459182007033</v>
+        <v>0.7029430460345987</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6539823968579033</v>
+        <v>0.647229857460343</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7375375760977706</v>
+        <v>0.7172317758360227</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4930399013190844</v>
+        <v>0.4727593364235029</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.444054082612383</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.4380242229058431</v>
+        <v>0.438024222905843</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.3214590841093062</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2799921690126399</v>
+        <v>0.2815375829657055</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4375983314005255</v>
+        <v>0.4354526861293562</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3996632121177835</v>
+        <v>0.400652646948449</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3207465042591486</v>
+        <v>0.3200846263691415</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3178042204807369</v>
+        <v>0.3146560323284813</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.479022985276682</v>
+        <v>0.480757613417101</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4093270889620211</v>
+        <v>0.4105270849277842</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.4068875612194174</v>
+        <v>0.4015457525343309</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3004022731049635</v>
+        <v>0.3022655502971323</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.4628205325941617</v>
+        <v>0.4618616833192177</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4159899018562353</v>
+        <v>0.4145786846894868</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3661708958803392</v>
+        <v>0.3704022424972979</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3274687868622447</v>
+        <v>0.3313015520276268</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4929542421415309</v>
+        <v>0.494559689594695</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4595690438990279</v>
+        <v>0.4602959068040458</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3942483251732706</v>
+        <v>0.3892210022409142</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3799666579407184</v>
+        <v>0.3827367057278952</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.545888377354917</v>
+        <v>0.5488859933719186</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4774363628215558</v>
+        <v>0.4762806211480431</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4724288256389557</v>
+        <v>0.4710805821773825</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3418427170671687</v>
+        <v>0.3411321607454018</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.5029384449379944</v>
+        <v>0.5058615954984572</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4596614709656472</v>
+        <v>0.4585571734635802</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.4179911993741403</v>
+        <v>0.419290997686679</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14795</v>
+        <v>14633</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45509</v>
+        <v>45059</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>28269</v>
+        <v>27142</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10339</v>
+        <v>9159</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>25430</v>
+        <v>25350</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>49134</v>
+        <v>49715</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25971</v>
+        <v>25630</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9374</v>
+        <v>9500</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>43819</v>
+        <v>43807</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>101766</v>
+        <v>101642</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>59773</v>
+        <v>59437</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>23277</v>
+        <v>24155</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31321</v>
+        <v>31888</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>70373</v>
+        <v>69464</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>50831</v>
+        <v>50124</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36162</v>
+        <v>36932</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>45668</v>
+        <v>45764</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>73353</v>
+        <v>72752</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>44517</v>
+        <v>44493</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>31042</v>
+        <v>30672</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>69425</v>
+        <v>70386</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>136355</v>
+        <v>135701</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>89934</v>
+        <v>89967</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>57835</v>
+        <v>59220</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>86071</v>
+        <v>84290</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>124326</v>
+        <v>123403</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>83320</v>
+        <v>82972</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>28358</v>
+        <v>25776</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>67480</v>
+        <v>65853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>123321</v>
+        <v>124568</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>74239</v>
+        <v>74705</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>33018</v>
+        <v>33068</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>161441</v>
+        <v>161515</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>258793</v>
+        <v>256193</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>165497</v>
+        <v>164835</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>64171</v>
+        <v>65769</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>123561</v>
+        <v>120909</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>161292</v>
+        <v>160887</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>114171</v>
+        <v>114579</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>55355</v>
+        <v>56933</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>95665</v>
+        <v>95667</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>155429</v>
+        <v>154911</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>102906</v>
+        <v>102206</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>54756</v>
+        <v>55237</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>206664</v>
+        <v>209500</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>308634</v>
+        <v>307271</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>208796</v>
+        <v>206526</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>101912</v>
+        <v>101983</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>88165</v>
+        <v>89072</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>138070</v>
+        <v>139974</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>110797</v>
+        <v>109277</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>48435</v>
+        <v>50137</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>95179</v>
+        <v>96777</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>111311</v>
+        <v>112946</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>77831</v>
+        <v>77744</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>56379</v>
+        <v>56149</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>195004</v>
+        <v>197883</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>260104</v>
+        <v>261339</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>198689</v>
+        <v>196780</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>113001</v>
+        <v>112169</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>125589</v>
+        <v>124222</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>175503</v>
+        <v>176948</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>143361</v>
+        <v>142331</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>75896</v>
+        <v>76186</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>129383</v>
+        <v>130271</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>143534</v>
+        <v>145826</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>106449</v>
+        <v>107581</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>77498</v>
+        <v>76581</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>244049</v>
+        <v>243799</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>307854</v>
+        <v>310317</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>241953</v>
+        <v>240548</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>145470</v>
+        <v>145650</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>71129</v>
+        <v>72518</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>128409</v>
+        <v>128858</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>99478</v>
+        <v>103196</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>61698</v>
+        <v>62503</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>40378</v>
+        <v>40599</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>114724</v>
+        <v>114292</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>101456</v>
+        <v>101873</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>72423</v>
+        <v>72498</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>119805</v>
+        <v>120982</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>254587</v>
+        <v>254621</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>213860</v>
+        <v>210894</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>141075</v>
+        <v>140263</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>102795</v>
+        <v>102668</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>164048</v>
+        <v>163747</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>135538</v>
+        <v>136653</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>90055</v>
+        <v>90985</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>63588</v>
+        <v>64019</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>149027</v>
+        <v>147901</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>135124</v>
+        <v>132498</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>93459</v>
+        <v>93390</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>158148</v>
+        <v>158975</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>301821</v>
+        <v>302306</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>262534</v>
+        <v>261513</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>176621</v>
+        <v>176993</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>52316</v>
+        <v>51681</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>71894</v>
+        <v>72748</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>67976</v>
+        <v>68477</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>66429</v>
+        <v>65501</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6239</v>
+        <v>6083</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>18122</v>
+        <v>17933</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>44143</v>
+        <v>44854</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>59659</v>
+        <v>59606</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>61270</v>
+        <v>63220</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>96146</v>
+        <v>97235</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>121451</v>
+        <v>121569</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>130867</v>
+        <v>130712</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>74611</v>
+        <v>74517</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>98525</v>
+        <v>100237</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>93703</v>
+        <v>95296</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>91543</v>
+        <v>92591</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18150</v>
+        <v>19135</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>34786</v>
+        <v>34802</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>66889</v>
+        <v>67051</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>77724</v>
+        <v>77421</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>88019</v>
+        <v>87625</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>128250</v>
+        <v>128166</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>155678</v>
+        <v>153920</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>162430</v>
+        <v>163838</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>19281</v>
+        <v>19716</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>16931</v>
+        <v>17360</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>21143</v>
+        <v>21109</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>29447</v>
+        <v>29504</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1806</v>
+        <v>1793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>3029</v>
+        <v>3490</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>8808</v>
+        <v>8170</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>19032</v>
+        <v>18798</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>23244</v>
+        <v>23764</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>23858</v>
+        <v>23081</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>33957</v>
+        <v>33504</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>50881</v>
+        <v>52052</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>33119</v>
+        <v>32803</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>33379</v>
+        <v>32409</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>37060</v>
+        <v>36241</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>43617</v>
+        <v>43805</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>6585</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>12318</v>
+        <v>12369</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>20520</v>
+        <v>20173</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>29890</v>
+        <v>29665</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>38554</v>
+        <v>37725</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>42509</v>
+        <v>41132</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>52974</v>
+        <v>52284</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>69411</v>
+        <v>69337</v>
       </c>
     </row>
     <row r="28">
@@ -3091,16 +3091,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>7304</v>
+        <v>7765</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>7794</v>
+        <v>7935</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>7557</v>
+        <v>8399</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3063</v>
+        <v>3598</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
@@ -3109,22 +3109,22 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2798</v>
+        <v>1486</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>751</v>
+        <v>631</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>8515</v>
+        <v>8014</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>7915</v>
+        <v>8246</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>12818</v>
+        <v>12079</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>5417</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="31">
@@ -3135,16 +3135,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>16761</v>
+        <v>16426</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>18414</v>
+        <v>19202</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>16525</v>
+        <v>17279</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>9939</v>
+        <v>10286</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>4635</v>
@@ -3156,19 +3156,19 @@
         <v>8014</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>4692</v>
+        <v>4478</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>18237</v>
+        <v>18160</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>20326</v>
+        <v>20116</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>23510</v>
+        <v>22863</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>13298</v>
+        <v>12751</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>386621</v>
+        <v>388755</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>591586</v>
+        <v>588685</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>470059</v>
+        <v>471222</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>286863</v>
+        <v>286271</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>271555</v>
+        <v>268865</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>464266</v>
+        <v>465947</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>377391</v>
+        <v>378497</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>285206</v>
+        <v>281461</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>671490</v>
+        <v>675655</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1074246</v>
+        <v>1072021</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>872795</v>
+        <v>869834</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>584155</v>
+        <v>590905</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>452178</v>
+        <v>457470</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>666421</v>
+        <v>668591</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>540516</v>
+        <v>541371</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>352600</v>
+        <v>348104</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>324672</v>
+        <v>327039</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>529072</v>
+        <v>531977</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>440186</v>
+        <v>439121</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>331147</v>
+        <v>330202</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>764122</v>
+        <v>762533</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1167363</v>
+        <v>1174148</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>964423</v>
+        <v>962106</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>666824</v>
+        <v>668897</v>
       </c>
     </row>
     <row r="36">
